--- a/data/hotels_by_city/Denver/Denver_shard_285.xlsx
+++ b/data/hotels_by_city/Denver/Denver_shard_285.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="75">
   <si>
     <t>STR#</t>
   </si>
@@ -63,6 +63,12 @@
     <t>https://www.tripadvisor.com/Hotel_Review-g609128-d12675157-Reviews-WoodSpring_Suites_Denver_Centennial-Centennial_Colorado.html</t>
   </si>
   <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
     <t>https://www.orbitz.com/Denver-Hotels-WoodSpring-Suites-Denver-Centennial.h19471077.Hotel-Information</t>
   </si>
   <si>
@@ -139,6 +145,102 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>08/05/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g609128-d12675157-r556181601-WoodSpring_Suites_Denver_Centennial-Centennial_Colorado.html</t>
+  </si>
+  <si>
+    <t>609128</t>
+  </si>
+  <si>
+    <t>12675157</t>
+  </si>
+  <si>
+    <t>556181601</t>
+  </si>
+  <si>
+    <t>01/24/2018</t>
+  </si>
+  <si>
+    <t>great room for the price</t>
+  </si>
+  <si>
+    <t>Brand new and great deal for the price.  Assuming the price will go up eventually but still worth it if stays below 90-100 a night.  Right now you can stay for much less a night if you stay for longer periods. Would definitely stay again and recommend to price conscious consumers for one night or long term stay!MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>Stephen S, Manager at WoodSpring Suites Denver Centennial, responded to this reviewResponded January 31, 2018</t>
+  </si>
+  <si>
+    <t>Responded January 31, 2018</t>
+  </si>
+  <si>
+    <t>Brand new and great deal for the price.  Assuming the price will go up eventually but still worth it if stays below 90-100 a night.  Right now you can stay for much less a night if you stay for longer periods. Would definitely stay again and recommend to price conscious consumers for one night or long term stay!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g609128-d12675157-r543902949-WoodSpring_Suites_Denver_Centennial-Centennial_Colorado.html</t>
+  </si>
+  <si>
+    <t>543902949</t>
+  </si>
+  <si>
+    <t>11/28/2017</t>
+  </si>
+  <si>
+    <t>A good, inexpensive place for a short stay, or for a long-term residence.</t>
+  </si>
+  <si>
+    <t>We stayed for one night as we traveled through the area and found it to be a good, although sort of sterile, place for a low price.  The hotel is clean and quiet, but it lacks the welcoming comfort that a lot of suites have nowadays.  The bed was very comfortable, and the room (202) was nice, but the traffic from the road could be heard.  We just turned on the constant fan and it was fine from there on.  This is a no-frills place, but all we needed was a clean place to bed down for the night while on a road trip, and it fit the bill.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>Stephen S, Manager at WoodSpring Suites Denver Centennial, responded to this reviewResponded November 29, 2017</t>
+  </si>
+  <si>
+    <t>Responded November 29, 2017</t>
+  </si>
+  <si>
+    <t>We stayed for one night as we traveled through the area and found it to be a good, although sort of sterile, place for a low price.  The hotel is clean and quiet, but it lacks the welcoming comfort that a lot of suites have nowadays.  The bed was very comfortable, and the room (202) was nice, but the traffic from the road could be heard.  We just turned on the constant fan and it was fine from there on.  This is a no-frills place, but all we needed was a clean place to bed down for the night while on a road trip, and it fit the bill.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g609128-d12675157-r541405680-WoodSpring_Suites_Denver_Centennial-Centennial_Colorado.html</t>
+  </si>
+  <si>
+    <t>541405680</t>
+  </si>
+  <si>
+    <t>11/16/2017</t>
+  </si>
+  <si>
+    <t>Thought we had a nice stay</t>
+  </si>
+  <si>
+    <t>My boyfriend and i arrived to Woodspring Suites for their grad opening week.Only to find ourselves being charged$250 for "smoking in our room."Upon entering the lobby the smell of burnt coffee and marijuana made us joke "welcome to Colorado!"We went on vacation to visit my boyfriends army friends, so to state we were smokeing pot in our room that it"wreaked"is a complete disrespectful alligation. Cigarettes on the other hand we do, and did leave the hotel entrance to smoke out by the highway. Is this some sort of gimmick that this hotel will pull for weeks or months on end to regain revenue?So now to be charged over $324, to get a great rate with Woodspring Suites under $74.Do you know where we could have went and checked in at with that amount for one night.It's absurd to think that we would be blamed and charged for smoking in a brand new hotel room when we had smoked our cigarettes outside the whole time.We are constant travelers and have booked hotels every single month and never have had a problem. Especially a problem with a brand new built Hotel and again feeling completely disrespected to be blamed for smoking pot when the front lobby of your hotel it smells like it before you even enter the room. Now after knowing all of what I was told by the front deck we now have to wait until Saturday to even speak...My boyfriend and i arrived to Woodspring Suites for their grad opening week.Only to find ourselves being charged$250 for "smoking in our room."Upon entering the lobby the smell of burnt coffee and marijuana made us joke "welcome to Colorado!"We went on vacation to visit my boyfriends army friends, so to state we were smokeing pot in our room that it"wreaked"is a complete disrespectful alligation. Cigarettes on the other hand we do, and did leave the hotel entrance to smoke out by the highway. Is this some sort of gimmick that this hotel will pull for weeks or months on end to regain revenue?So now to be charged over $324, to get a great rate with Woodspring Suites under $74.Do you know where we could have went and checked in at with that amount for one night.It's absurd to think that we would be blamed and charged for smoking in a brand new hotel room when we had smoked our cigarettes outside the whole time.We are constant travelers and have booked hotels every single month and never have had a problem. Especially a problem with a brand new built Hotel and again feeling completely disrespected to be blamed for smoking pot when the front lobby of your hotel it smells like it before you even enter the room. Now after knowing all of what I was told by the front deck we now have to wait until Saturday to even speak to the appropriate person who initially charged the room.What actions are needed to be taken from this to have our innocence given back?Other hotels we booked in Colorado would reference us with no problems.We clean up after ourselves, not always make the bed but never disrespect to rules and regulations of our stay with anyone! MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>Stephen S, Manager at WoodSpring Suites Denver Centennial, responded to this reviewResponded November 20, 2017</t>
+  </si>
+  <si>
+    <t>Responded November 20, 2017</t>
+  </si>
+  <si>
+    <t>My boyfriend and i arrived to Woodspring Suites for their grad opening week.Only to find ourselves being charged$250 for "smoking in our room."Upon entering the lobby the smell of burnt coffee and marijuana made us joke "welcome to Colorado!"We went on vacation to visit my boyfriends army friends, so to state we were smokeing pot in our room that it"wreaked"is a complete disrespectful alligation. Cigarettes on the other hand we do, and did leave the hotel entrance to smoke out by the highway. Is this some sort of gimmick that this hotel will pull for weeks or months on end to regain revenue?So now to be charged over $324, to get a great rate with Woodspring Suites under $74.Do you know where we could have went and checked in at with that amount for one night.It's absurd to think that we would be blamed and charged for smoking in a brand new hotel room when we had smoked our cigarettes outside the whole time.We are constant travelers and have booked hotels every single month and never have had a problem. Especially a problem with a brand new built Hotel and again feeling completely disrespected to be blamed for smoking pot when the front lobby of your hotel it smells like it before you even enter the room. Now after knowing all of what I was told by the front deck we now have to wait until Saturday to even speak...My boyfriend and i arrived to Woodspring Suites for their grad opening week.Only to find ourselves being charged$250 for "smoking in our room."Upon entering the lobby the smell of burnt coffee and marijuana made us joke "welcome to Colorado!"We went on vacation to visit my boyfriends army friends, so to state we were smokeing pot in our room that it"wreaked"is a complete disrespectful alligation. Cigarettes on the other hand we do, and did leave the hotel entrance to smoke out by the highway. Is this some sort of gimmick that this hotel will pull for weeks or months on end to regain revenue?So now to be charged over $324, to get a great rate with Woodspring Suites under $74.Do you know where we could have went and checked in at with that amount for one night.It's absurd to think that we would be blamed and charged for smoking in a brand new hotel room when we had smoked our cigarettes outside the whole time.We are constant travelers and have booked hotels every single month and never have had a problem. Especially a problem with a brand new built Hotel and again feeling completely disrespected to be blamed for smoking pot when the front lobby of your hotel it smells like it before you even enter the room. Now after knowing all of what I was told by the front deck we now have to wait until Saturday to even speak to the appropriate person who initially charged the room.What actions are needed to be taken from this to have our innocence given back?Other hotels we booked in Colorado would reference us with no problems.We clean up after ourselves, not always make the bed but never disrespect to rules and regulations of our stay with anyone! More</t>
   </si>
 </sst>
 </file>
@@ -532,11 +634,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>15</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +666,272 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="H1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="J1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="K1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="L1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="M1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="N1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="O1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="P1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="Q1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="R1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="S1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="T1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="U1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="V1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="W1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="X1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="Y1" t="s">
-        <v>40</v>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>66591</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G2" t="s">
+        <v>45</v>
+      </c>
+      <c r="H2" t="s">
+        <v>46</v>
+      </c>
+      <c r="I2" t="s">
+        <v>47</v>
+      </c>
+      <c r="J2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K2" t="s">
+        <v>49</v>
+      </c>
+      <c r="L2" t="s">
+        <v>50</v>
+      </c>
+      <c r="M2" t="n">
+        <v>5</v>
+      </c>
+      <c r="N2" t="s">
+        <v>51</v>
+      </c>
+      <c r="O2" t="s">
+        <v>52</v>
+      </c>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="n">
+        <v>5</v>
+      </c>
+      <c r="R2" t="s"/>
+      <c r="S2" t="n">
+        <v>5</v>
+      </c>
+      <c r="T2" t="s"/>
+      <c r="U2" t="n">
+        <v>5</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s">
+        <v>53</v>
+      </c>
+      <c r="X2" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>66591</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F3" t="s">
+        <v>56</v>
+      </c>
+      <c r="G3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H3" t="s">
+        <v>46</v>
+      </c>
+      <c r="I3" t="s">
+        <v>57</v>
+      </c>
+      <c r="J3" t="s">
+        <v>58</v>
+      </c>
+      <c r="K3" t="s">
+        <v>59</v>
+      </c>
+      <c r="L3" t="s">
+        <v>60</v>
+      </c>
+      <c r="M3" t="n">
+        <v>4</v>
+      </c>
+      <c r="N3" t="s">
+        <v>61</v>
+      </c>
+      <c r="O3" t="s">
+        <v>62</v>
+      </c>
+      <c r="P3" t="s"/>
+      <c r="Q3" t="n">
+        <v>3</v>
+      </c>
+      <c r="R3" t="s"/>
+      <c r="S3" t="s"/>
+      <c r="T3" t="s"/>
+      <c r="U3" t="n">
+        <v>4</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s">
+        <v>63</v>
+      </c>
+      <c r="X3" t="s">
+        <v>64</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>66591</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F4" t="s">
+        <v>66</v>
+      </c>
+      <c r="G4" t="s">
+        <v>45</v>
+      </c>
+      <c r="H4" t="s">
+        <v>46</v>
+      </c>
+      <c r="I4" t="s">
+        <v>67</v>
+      </c>
+      <c r="J4" t="s">
+        <v>68</v>
+      </c>
+      <c r="K4" t="s">
+        <v>69</v>
+      </c>
+      <c r="L4" t="s">
+        <v>70</v>
+      </c>
+      <c r="M4" t="n">
+        <v>2</v>
+      </c>
+      <c r="N4" t="s">
+        <v>61</v>
+      </c>
+      <c r="O4" t="s">
+        <v>71</v>
+      </c>
+      <c r="P4" t="s"/>
+      <c r="Q4" t="s"/>
+      <c r="R4" t="s"/>
+      <c r="S4" t="s"/>
+      <c r="T4" t="s"/>
+      <c r="U4" t="s"/>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s">
+        <v>72</v>
+      </c>
+      <c r="X4" t="s">
+        <v>73</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>74</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Denver/Denver_shard_285.xlsx
+++ b/data/hotels_by_city/Denver/Denver_shard_285.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="123">
   <si>
     <t>STR#</t>
   </si>
@@ -147,18 +147,149 @@
     <t>response_text</t>
   </si>
   <si>
-    <t>08/05/2018</t>
+    <t>09/07/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g609128-d12675157-r610365113-WoodSpring_Suites_Denver_Centennial-Centennial_Colorado.html</t>
+  </si>
+  <si>
+    <t>609128</t>
+  </si>
+  <si>
+    <t>12675157</t>
+  </si>
+  <si>
+    <t>610365113</t>
+  </si>
+  <si>
+    <t>August 25, 2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g609128-d12675157-r608982260-WoodSpring_Suites_Denver_Centennial-Centennial_Colorado.html</t>
+  </si>
+  <si>
+    <t>608982260</t>
+  </si>
+  <si>
+    <t>08/21/2018</t>
+  </si>
+  <si>
+    <t>A new low in budget hotels.</t>
+  </si>
+  <si>
+    <t>Not as clean as one might expect for a newer hotel. The walls are thin and people were loud, banging doors, stomping on the floor and thumping against the walls most of the night. We were there for 2 nights. I can't imagine staying more, even though it's branded as extended stay. Nothing is provided, not even shampoo. We asked at the desk thinking it was an oversight. They truly have none. Only a tiny bar of wax soap is provided for your entire stay. There's no kleenex, no extra toilet paper and one towel per bed that stays wet. There are no hand towels. Housekeeping only comes once every 2 weeks. The kitchenettes are useless unless you pay extra for dishes, soap and dish towels or provide your own. There's no coffee maker or hair dryer. Customer service was abysmal. The desk staff ignored the phone. We had to knock on the door because he was busy with his child and significant other. His first comment was something about thinking we were the cops. WTH? It made us wonder. I don't mind Super 8 or Motel6 even when furnishings are worn or dated. This felt like the same quality and not much bigger rooms. Much less was provided for higher rates.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>Josefina M, Manager at WoodSpring Suites Denver Centennial, responded to this reviewResponded 1 week ago</t>
+  </si>
+  <si>
+    <t>Responded 1 week ago</t>
+  </si>
+  <si>
+    <t>Not as clean as one might expect for a newer hotel. The walls are thin and people were loud, banging doors, stomping on the floor and thumping against the walls most of the night. We were there for 2 nights. I can't imagine staying more, even though it's branded as extended stay. Nothing is provided, not even shampoo. We asked at the desk thinking it was an oversight. They truly have none. Only a tiny bar of wax soap is provided for your entire stay. There's no kleenex, no extra toilet paper and one towel per bed that stays wet. There are no hand towels. Housekeeping only comes once every 2 weeks. The kitchenettes are useless unless you pay extra for dishes, soap and dish towels or provide your own. There's no coffee maker or hair dryer. Customer service was abysmal. The desk staff ignored the phone. We had to knock on the door because he was busy with his child and significant other. His first comment was something about thinking we were the cops. WTH? It made us wonder. I don't mind Super 8 or Motel6 even when furnishings are worn or dated. This felt like the same quality and not much bigger rooms. Much less was provided for higher rates.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g609128-d12675157-r608684878-WoodSpring_Suites_Denver_Centennial-Centennial_Colorado.html</t>
+  </si>
+  <si>
+    <t>608684878</t>
+  </si>
+  <si>
+    <t>08/20/2018</t>
+  </si>
+  <si>
+    <t>No Frills Hotel</t>
+  </si>
+  <si>
+    <t>This hotel may be good for longer stays in which the occupant is truly living there as opposed to a typical hotel.  But someone just popping in for a night or two, or even a week, I wouldn't not recommend.  Here is a quick list of things NOT included in your room: shampoo/conditioner, hair dryer, do not disturb doorhanger, coffee maker, basic dishes for the kitchen, more than 2 towels, a phone that calls the front desk, tissues, notepad/pen, any information on the nearby area or tourist things to do, housekeeping unless you stay at least 2 weeks.  Maybe I should list what is included besides a bed: 2 towels, a roll of toilet paper, 2 disposable cups, 2 travel soaps, alarm clock and a corded phone with a 25 foot telephone line to make up for not having a cordless phone.The first floor reeked of marijuana; which is not allowed to be smoked inside but the scent follows smokers.The front desk staff were nice but not professional as they "gossiped" while helping customers.There were several access points so you don't always have to go through the lobby; which is nice.I don't think I personally would stay again unless I needed temporary housing then I think it would be a good, no frills value while I was in transition.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>This hotel may be good for longer stays in which the occupant is truly living there as opposed to a typical hotel.  But someone just popping in for a night or two, or even a week, I wouldn't not recommend.  Here is a quick list of things NOT included in your room: shampoo/conditioner, hair dryer, do not disturb doorhanger, coffee maker, basic dishes for the kitchen, more than 2 towels, a phone that calls the front desk, tissues, notepad/pen, any information on the nearby area or tourist things to do, housekeeping unless you stay at least 2 weeks.  Maybe I should list what is included besides a bed: 2 towels, a roll of toilet paper, 2 disposable cups, 2 travel soaps, alarm clock and a corded phone with a 25 foot telephone line to make up for not having a cordless phone.The first floor reeked of marijuana; which is not allowed to be smoked inside but the scent follows smokers.The front desk staff were nice but not professional as they "gossiped" while helping customers.There were several access points so you don't always have to go through the lobby; which is nice.I don't think I personally would stay again unless I needed temporary housing then I think it would be a good, no frills value while I was in transition.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g609128-d12675157-r606082142-WoodSpring_Suites_Denver_Centennial-Centennial_Colorado.html</t>
+  </si>
+  <si>
+    <t>606082142</t>
+  </si>
+  <si>
+    <t>08/13/2018</t>
+  </si>
+  <si>
+    <t>Good value, would stay again!</t>
+  </si>
+  <si>
+    <t>This facility seems to be in good shape.  The rooms had nice amenities, including a kitchen (full sized fridge, stovetop, microwave, sink included, but no oven or pots, bowls, or other kitchen utensils at all).  The lack of kitchenware was solved easily with a quick trip to a nearby Walmart for a few inexpensive and/or disposable items.  Just be aware that those things are not stocked in the kitchen (at least not in the room we got).  There is a nice coin-operated laundry with a good number of washers and dryers and there is 24-hour complimentary coffee in the lobby.
+We had a couple of very minor issues that would not prevent us from recommending this hotel but that I feel are relevant to include in a review:  our key cards repeatedly had to be reprogrammed because they had stopped working despite our consciously keeping them away from cell phones or credit cards.  Since the front desk is not fully staffed during the nighttime, this could have been a problem if our keys didn't work and we were locked out all night.  As it was, each time they needed reprogramming it was early and there was someone staffing the desk and it was done quickly and cheerfully for us.  (I think there is probably an emergency number that can be called during the night....not sure of the particulars.)  Also, our room was mostly clean, though I did notice a couple...This facility seems to be in good shape.  The rooms had nice amenities, including a kitchen (full sized fridge, stovetop, microwave, sink included, but no oven or pots, bowls, or other kitchen utensils at all).  The lack of kitchenware was solved easily with a quick trip to a nearby Walmart for a few inexpensive and/or disposable items.  Just be aware that those things are not stocked in the kitchen (at least not in the room we got).  There is a nice coin-operated laundry with a good number of washers and dryers and there is 24-hour complimentary coffee in the lobby.We had a couple of very minor issues that would not prevent us from recommending this hotel but that I feel are relevant to include in a review:  our key cards repeatedly had to be reprogrammed because they had stopped working despite our consciously keeping them away from cell phones or credit cards.  Since the front desk is not fully staffed during the nighttime, this could have been a problem if our keys didn't work and we were locked out all night.  As it was, each time they needed reprogramming it was early and there was someone staffing the desk and it was done quickly and cheerfully for us.  (I think there is probably an emergency number that can be called during the night....not sure of the particulars.)  Also, our room was mostly clean, though I did notice a couple of weird, slightly gross smears of something on the headboard of one bed and the bed skirt of the other.....minor but just didn't like the idea of mystery smears on the bed even if they weren't readily identifiable as anything super disgusting.  I bought Lysol wipes on my trip to the store to ease my mind just because I am picky about cleanliness.Other than those minor issues, the stay was very satisfactory, especially for the reasonable rate we paid, and I would happily stay there again if I was able to book at a competitive rate.  It was a good value for the area.MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>This facility seems to be in good shape.  The rooms had nice amenities, including a kitchen (full sized fridge, stovetop, microwave, sink included, but no oven or pots, bowls, or other kitchen utensils at all).  The lack of kitchenware was solved easily with a quick trip to a nearby Walmart for a few inexpensive and/or disposable items.  Just be aware that those things are not stocked in the kitchen (at least not in the room we got).  There is a nice coin-operated laundry with a good number of washers and dryers and there is 24-hour complimentary coffee in the lobby.
+We had a couple of very minor issues that would not prevent us from recommending this hotel but that I feel are relevant to include in a review:  our key cards repeatedly had to be reprogrammed because they had stopped working despite our consciously keeping them away from cell phones or credit cards.  Since the front desk is not fully staffed during the nighttime, this could have been a problem if our keys didn't work and we were locked out all night.  As it was, each time they needed reprogramming it was early and there was someone staffing the desk and it was done quickly and cheerfully for us.  (I think there is probably an emergency number that can be called during the night....not sure of the particulars.)  Also, our room was mostly clean, though I did notice a couple...This facility seems to be in good shape.  The rooms had nice amenities, including a kitchen (full sized fridge, stovetop, microwave, sink included, but no oven or pots, bowls, or other kitchen utensils at all).  The lack of kitchenware was solved easily with a quick trip to a nearby Walmart for a few inexpensive and/or disposable items.  Just be aware that those things are not stocked in the kitchen (at least not in the room we got).  There is a nice coin-operated laundry with a good number of washers and dryers and there is 24-hour complimentary coffee in the lobby.We had a couple of very minor issues that would not prevent us from recommending this hotel but that I feel are relevant to include in a review:  our key cards repeatedly had to be reprogrammed because they had stopped working despite our consciously keeping them away from cell phones or credit cards.  Since the front desk is not fully staffed during the nighttime, this could have been a problem if our keys didn't work and we were locked out all night.  As it was, each time they needed reprogramming it was early and there was someone staffing the desk and it was done quickly and cheerfully for us.  (I think there is probably an emergency number that can be called during the night....not sure of the particulars.)  Also, our room was mostly clean, though I did notice a couple of weird, slightly gross smears of something on the headboard of one bed and the bed skirt of the other.....minor but just didn't like the idea of mystery smears on the bed even if they weren't readily identifiable as anything super disgusting.  I bought Lysol wipes on my trip to the store to ease my mind just because I am picky about cleanliness.Other than those minor issues, the stay was very satisfactory, especially for the reasonable rate we paid, and I would happily stay there again if I was able to book at a competitive rate.  It was a good value for the area.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g609128-d12675157-r602500312-WoodSpring_Suites_Denver_Centennial-Centennial_Colorado.html</t>
+  </si>
+  <si>
+    <t>602500312</t>
+  </si>
+  <si>
+    <t>08/03/2018</t>
+  </si>
+  <si>
+    <t>Travel Break</t>
+  </si>
+  <si>
+    <t>We decided to take 2 days rest after our overnight flight from Australia. We selected Woodspring Suites because they were relatively new. The rooms are a good size with a range of facilities. However although there is a basic cooking facility there are no cooking utensils, are guests expected to bring their own? There is a large fridge, but no milk in it or cold water, so a large fridge for what? If you want a coffee you have to go down to the reception foyer make it then take it back to the room. Surely a coffee facility would be best in the room. The floors are a type of limo so guests directly above you dropping items onto the floor is very noticeable, as we found out. Also it was easy to hear the noise of traffic from the nearby freeway.As we were packing to leave looked under the bed to check and saw various pieces of plastic paper and dust, so cleaning under beds is not part of Theo normal cleaning service.Would I stay there again - not likelyMoreShow less</t>
+  </si>
+  <si>
+    <t>We decided to take 2 days rest after our overnight flight from Australia. We selected Woodspring Suites because they were relatively new. The rooms are a good size with a range of facilities. However although there is a basic cooking facility there are no cooking utensils, are guests expected to bring their own? There is a large fridge, but no milk in it or cold water, so a large fridge for what? If you want a coffee you have to go down to the reception foyer make it then take it back to the room. Surely a coffee facility would be best in the room. The floors are a type of limo so guests directly above you dropping items onto the floor is very noticeable, as we found out. Also it was easy to hear the noise of traffic from the nearby freeway.As we were packing to leave looked under the bed to check and saw various pieces of plastic paper and dust, so cleaning under beds is not part of Theo normal cleaning service.Would I stay there again - not likelyMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g609128-d12675157-r557240148-WoodSpring_Suites_Denver_Centennial-Centennial_Colorado.html</t>
+  </si>
+  <si>
+    <t>557240148</t>
+  </si>
+  <si>
+    <t>01/29/2018</t>
+  </si>
+  <si>
+    <t>An excellent place to stay</t>
+  </si>
+  <si>
+    <t>I travel frequently for work with my group, My stay here has been one of the most wonderful trips yet. This hotel is immaculately clean. All of the staff are quite pleasant and helpful. The front reception staff Jody Hope and Amanda make sure guests needs are met. we used several rooms in the hotel for our group and the staff coordinated that very well for us. I will definitely stay at Woodspring suites again. Thank you.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2018</t>
+  </si>
+  <si>
+    <t>Stephen S, Manager at WoodSpring Suites Denver Centennial, responded to this reviewResponded January 31, 2018</t>
+  </si>
+  <si>
+    <t>Responded January 31, 2018</t>
+  </si>
+  <si>
+    <t>I travel frequently for work with my group, My stay here has been one of the most wonderful trips yet. This hotel is immaculately clean. All of the staff are quite pleasant and helpful. The front reception staff Jody Hope and Amanda make sure guests needs are met. we used several rooms in the hotel for our group and the staff coordinated that very well for us. I will definitely stay at Woodspring suites again. Thank you.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g609128-d12675157-r556181601-WoodSpring_Suites_Denver_Centennial-Centennial_Colorado.html</t>
   </si>
   <si>
-    <t>609128</t>
-  </si>
-  <si>
-    <t>12675157</t>
-  </si>
-  <si>
     <t>556181601</t>
   </si>
   <si>
@@ -174,15 +305,6 @@
     <t>December 2017</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled on business</t>
-  </si>
-  <si>
-    <t>Stephen S, Manager at WoodSpring Suites Denver Centennial, responded to this reviewResponded January 31, 2018</t>
-  </si>
-  <si>
-    <t>Responded January 31, 2018</t>
-  </si>
-  <si>
     <t>Brand new and great deal for the price.  Assuming the price will go up eventually but still worth it if stays below 90-100 a night.  Right now you can stay for much less a night if you stay for longer periods. Would definitely stay again and recommend to price conscious consumers for one night or long term stay!More</t>
   </si>
   <si>
@@ -204,9 +326,6 @@
     <t>November 2017</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled as a couple</t>
-  </si>
-  <si>
     <t>Stephen S, Manager at WoodSpring Suites Denver Centennial, responded to this reviewResponded November 29, 2017</t>
   </si>
   <si>
@@ -241,6 +360,35 @@
   </si>
   <si>
     <t>My boyfriend and i arrived to Woodspring Suites for their grad opening week.Only to find ourselves being charged$250 for "smoking in our room."Upon entering the lobby the smell of burnt coffee and marijuana made us joke "welcome to Colorado!"We went on vacation to visit my boyfriends army friends, so to state we were smokeing pot in our room that it"wreaked"is a complete disrespectful alligation. Cigarettes on the other hand we do, and did leave the hotel entrance to smoke out by the highway. Is this some sort of gimmick that this hotel will pull for weeks or months on end to regain revenue?So now to be charged over $324, to get a great rate with Woodspring Suites under $74.Do you know where we could have went and checked in at with that amount for one night.It's absurd to think that we would be blamed and charged for smoking in a brand new hotel room when we had smoked our cigarettes outside the whole time.We are constant travelers and have booked hotels every single month and never have had a problem. Especially a problem with a brand new built Hotel and again feeling completely disrespected to be blamed for smoking pot when the front lobby of your hotel it smells like it before you even enter the room. Now after knowing all of what I was told by the front deck we now have to wait until Saturday to even speak...My boyfriend and i arrived to Woodspring Suites for their grad opening week.Only to find ourselves being charged$250 for "smoking in our room."Upon entering the lobby the smell of burnt coffee and marijuana made us joke "welcome to Colorado!"We went on vacation to visit my boyfriends army friends, so to state we were smokeing pot in our room that it"wreaked"is a complete disrespectful alligation. Cigarettes on the other hand we do, and did leave the hotel entrance to smoke out by the highway. Is this some sort of gimmick that this hotel will pull for weeks or months on end to regain revenue?So now to be charged over $324, to get a great rate with Woodspring Suites under $74.Do you know where we could have went and checked in at with that amount for one night.It's absurd to think that we would be blamed and charged for smoking in a brand new hotel room when we had smoked our cigarettes outside the whole time.We are constant travelers and have booked hotels every single month and never have had a problem. Especially a problem with a brand new built Hotel and again feeling completely disrespected to be blamed for smoking pot when the front lobby of your hotel it smells like it before you even enter the room. Now after knowing all of what I was told by the front deck we now have to wait until Saturday to even speak to the appropriate person who initially charged the room.What actions are needed to be taken from this to have our innocence given back?Other hotels we booked in Colorado would reference us with no problems.We clean up after ourselves, not always make the bed but never disrespect to rules and regulations of our stay with anyone! More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g609128-d12675157-r536014554-WoodSpring_Suites_Denver_Centennial-Centennial_Colorado.html</t>
+  </si>
+  <si>
+    <t>536014554</t>
+  </si>
+  <si>
+    <t>10/25/2017</t>
+  </si>
+  <si>
+    <t>Open only 20 days, so very well put together</t>
+  </si>
+  <si>
+    <t>The location is not far from Centennial airport; yet, our room was quiet!  There was  a review, very negative, posted in another area - they had only been open one day I feel should not have been posted.
+From the carpets in the hallways to the gorgeous rooms all decor is very well done! Colors from the carpets play into the rooms, colors are relaxing, it was like clean, clean!  The bed linens and bed were like sleeping on a cloud...Snowflake was the name of the blanket we had...mmm.  You would have to experience to understand! The one picture, framed in matching dark wood, pickled up the lighter colors found throughout the room..amazing, absolutely have not seen something this well done for years if ever!  There was a Bible which is where I head first when I enter a room.  Thanks management (yep, they are top of the line also, helpful, friendly and concerned due to our age and walking difficulties of the other member to stay in this room. The bathtub, I could have slept in it..comfortable, water pressure adequate, hot, fixtures are beautiful and good quality; as for the commode..I hate these plastic commode lids that go "pop, crackle," this one was strong and you could sit to on it if you needed to do so for whatever reason. There is a nice, comfortable chair.  The rooms are set up as Extended Time and meet the needs of...The location is not far from Centennial airport; yet, our room was quiet!  There was  a review, very negative, posted in another area - they had only been open one day I feel should not have been posted.From the carpets in the hallways to the gorgeous rooms all decor is very well done! Colors from the carpets play into the rooms, colors are relaxing, it was like clean, clean!  The bed linens and bed were like sleeping on a cloud...Snowflake was the name of the blanket we had...mmm.  You would have to experience to understand! The one picture, framed in matching dark wood, pickled up the lighter colors found throughout the room..amazing, absolutely have not seen something this well done for years if ever!  There was a Bible which is where I head first when I enter a room.  Thanks management (yep, they are top of the line also, helpful, friendly and concerned due to our age and walking difficulties of the other member to stay in this room. The bathtub, I could have slept in it..comfortable, water pressure adequate, hot, fixtures are beautiful and good quality; as for the commode..I hate these plastic commode lids that go "pop, crackle," this one was strong and you could sit to on it if you needed to do so for whatever reason. There is a nice, comfortable chair.  The rooms are set up as Extended Time and meet the needs of a long stay adequately.  It would be good to have hair dryers added - yet, these are often taken so I understand that dilemma. One thing I hope they will consider:  for older people, for those with a limp or a wheelchair, first floor and close to the lobby..we were on 2nd floor and a long walk to our room. For me that was just fine, for the other person, it was most difficult.I would recommend this facility to anyone wanting a comfortable, safe and clean room.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2017</t>
+  </si>
+  <si>
+    <t>Stephen S, Manager at WoodSpring Suites Denver Centennial, responded to this reviewResponded November 10, 2017</t>
+  </si>
+  <si>
+    <t>Responded November 10, 2017</t>
+  </si>
+  <si>
+    <t>The location is not far from Centennial airport; yet, our room was quiet!  There was  a review, very negative, posted in another area - they had only been open one day I feel should not have been posted.
+From the carpets in the hallways to the gorgeous rooms all decor is very well done! Colors from the carpets play into the rooms, colors are relaxing, it was like clean, clean!  The bed linens and bed were like sleeping on a cloud...Snowflake was the name of the blanket we had...mmm.  You would have to experience to understand! The one picture, framed in matching dark wood, pickled up the lighter colors found throughout the room..amazing, absolutely have not seen something this well done for years if ever!  There was a Bible which is where I head first when I enter a room.  Thanks management (yep, they are top of the line also, helpful, friendly and concerned due to our age and walking difficulties of the other member to stay in this room. The bathtub, I could have slept in it..comfortable, water pressure adequate, hot, fixtures are beautiful and good quality; as for the commode..I hate these plastic commode lids that go "pop, crackle," this one was strong and you could sit to on it if you needed to do so for whatever reason. There is a nice, comfortable chair.  The rooms are set up as Extended Time and meet the needs of...The location is not far from Centennial airport; yet, our room was quiet!  There was  a review, very negative, posted in another area - they had only been open one day I feel should not have been posted.From the carpets in the hallways to the gorgeous rooms all decor is very well done! Colors from the carpets play into the rooms, colors are relaxing, it was like clean, clean!  The bed linens and bed were like sleeping on a cloud...Snowflake was the name of the blanket we had...mmm.  You would have to experience to understand! The one picture, framed in matching dark wood, pickled up the lighter colors found throughout the room..amazing, absolutely have not seen something this well done for years if ever!  There was a Bible which is where I head first when I enter a room.  Thanks management (yep, they are top of the line also, helpful, friendly and concerned due to our age and walking difficulties of the other member to stay in this room. The bathtub, I could have slept in it..comfortable, water pressure adequate, hot, fixtures are beautiful and good quality; as for the commode..I hate these plastic commode lids that go "pop, crackle," this one was strong and you could sit to on it if you needed to do so for whatever reason. There is a nice, comfortable chair.  The rooms are set up as Extended Time and meet the needs of a long stay adequately.  It would be good to have hair dryers added - yet, these are often taken so I understand that dilemma. One thing I hope they will consider:  for older people, for those with a limp or a wheelchair, first floor and close to the lobby..we were on 2nd floor and a long walk to our room. For me that was just fine, for the other person, it was most difficult.I would recommend this facility to anyone wanting a comfortable, safe and clean room.More</t>
   </si>
 </sst>
 </file>
@@ -768,45 +916,23 @@
       <c r="J2" t="s">
         <v>48</v>
       </c>
-      <c r="K2" t="s">
-        <v>49</v>
-      </c>
-      <c r="L2" t="s">
-        <v>50</v>
-      </c>
-      <c r="M2" t="n">
-        <v>5</v>
-      </c>
-      <c r="N2" t="s">
-        <v>51</v>
-      </c>
-      <c r="O2" t="s">
-        <v>52</v>
-      </c>
+      <c r="K2" t="s"/>
+      <c r="L2" t="s"/>
+      <c r="M2" t="s"/>
+      <c r="N2" t="s"/>
+      <c r="O2" t="s"/>
       <c r="P2" t="s"/>
-      <c r="Q2" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q2" t="s"/>
       <c r="R2" t="s"/>
-      <c r="S2" t="n">
-        <v>5</v>
-      </c>
+      <c r="S2" t="s"/>
       <c r="T2" t="s"/>
-      <c r="U2" t="n">
-        <v>5</v>
-      </c>
+      <c r="U2" t="s"/>
       <c r="V2" t="n">
         <v>0</v>
       </c>
-      <c r="W2" t="s">
-        <v>53</v>
-      </c>
-      <c r="X2" t="s">
-        <v>54</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>55</v>
-      </c>
+      <c r="W2" t="s"/>
+      <c r="X2" t="s"/>
+      <c r="Y2" t="s"/>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -821,7 +947,7 @@
         <v>43</v>
       </c>
       <c r="F3" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="G3" t="s">
         <v>45</v>
@@ -830,47 +956,43 @@
         <v>46</v>
       </c>
       <c r="I3" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="J3" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="K3" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="L3" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="M3" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N3" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="O3" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="P3" t="s"/>
-      <c r="Q3" t="n">
-        <v>3</v>
-      </c>
+      <c r="Q3" t="s"/>
       <c r="R3" t="s"/>
       <c r="S3" t="s"/>
       <c r="T3" t="s"/>
-      <c r="U3" t="n">
-        <v>4</v>
-      </c>
+      <c r="U3" t="s"/>
       <c r="V3" t="n">
         <v>0</v>
       </c>
       <c r="W3" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="X3" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="Y3" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4">
@@ -886,7 +1008,7 @@
         <v>43</v>
       </c>
       <c r="F4" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="G4" t="s">
         <v>45</v>
@@ -895,25 +1017,25 @@
         <v>46</v>
       </c>
       <c r="I4" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="J4" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="K4" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="L4" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="M4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N4" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="O4" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="P4" t="s"/>
       <c r="Q4" t="s"/>
@@ -925,13 +1047,464 @@
         <v>0</v>
       </c>
       <c r="W4" t="s">
+        <v>56</v>
+      </c>
+      <c r="X4" t="s">
+        <v>57</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>66591</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>43</v>
+      </c>
+      <c r="F5" t="s">
+        <v>67</v>
+      </c>
+      <c r="G5" t="s">
+        <v>45</v>
+      </c>
+      <c r="H5" t="s">
+        <v>46</v>
+      </c>
+      <c r="I5" t="s">
+        <v>68</v>
+      </c>
+      <c r="J5" t="s">
+        <v>69</v>
+      </c>
+      <c r="K5" t="s">
+        <v>70</v>
+      </c>
+      <c r="L5" t="s">
+        <v>71</v>
+      </c>
+      <c r="M5" t="n">
+        <v>4</v>
+      </c>
+      <c r="N5" t="s">
+        <v>64</v>
+      </c>
+      <c r="O5" t="s">
         <v>72</v>
       </c>
-      <c r="X4" t="s">
+      <c r="P5" t="s"/>
+      <c r="Q5" t="n">
+        <v>4</v>
+      </c>
+      <c r="R5" t="s"/>
+      <c r="S5" t="s"/>
+      <c r="T5" t="s"/>
+      <c r="U5" t="n">
+        <v>4</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s">
+        <v>56</v>
+      </c>
+      <c r="X5" t="s">
+        <v>57</v>
+      </c>
+      <c r="Y5" t="s">
         <v>73</v>
       </c>
-      <c r="Y4" t="s">
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>66591</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>43</v>
+      </c>
+      <c r="F6" t="s">
         <v>74</v>
+      </c>
+      <c r="G6" t="s">
+        <v>45</v>
+      </c>
+      <c r="H6" t="s">
+        <v>46</v>
+      </c>
+      <c r="I6" t="s">
+        <v>75</v>
+      </c>
+      <c r="J6" t="s">
+        <v>76</v>
+      </c>
+      <c r="K6" t="s">
+        <v>77</v>
+      </c>
+      <c r="L6" t="s">
+        <v>78</v>
+      </c>
+      <c r="M6" t="n">
+        <v>3</v>
+      </c>
+      <c r="N6" t="s">
+        <v>64</v>
+      </c>
+      <c r="O6" t="s">
+        <v>55</v>
+      </c>
+      <c r="P6" t="s"/>
+      <c r="Q6" t="s"/>
+      <c r="R6" t="s"/>
+      <c r="S6" t="s"/>
+      <c r="T6" t="s"/>
+      <c r="U6" t="s"/>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s">
+        <v>56</v>
+      </c>
+      <c r="X6" t="s">
+        <v>57</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>66591</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>43</v>
+      </c>
+      <c r="F7" t="s">
+        <v>80</v>
+      </c>
+      <c r="G7" t="s">
+        <v>45</v>
+      </c>
+      <c r="H7" t="s">
+        <v>46</v>
+      </c>
+      <c r="I7" t="s">
+        <v>81</v>
+      </c>
+      <c r="J7" t="s">
+        <v>82</v>
+      </c>
+      <c r="K7" t="s">
+        <v>83</v>
+      </c>
+      <c r="L7" t="s">
+        <v>84</v>
+      </c>
+      <c r="M7" t="n">
+        <v>5</v>
+      </c>
+      <c r="N7" t="s">
+        <v>85</v>
+      </c>
+      <c r="O7" t="s">
+        <v>65</v>
+      </c>
+      <c r="P7" t="s"/>
+      <c r="Q7" t="s"/>
+      <c r="R7" t="n">
+        <v>5</v>
+      </c>
+      <c r="S7" t="s"/>
+      <c r="T7" t="s"/>
+      <c r="U7" t="n">
+        <v>5</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s">
+        <v>86</v>
+      </c>
+      <c r="X7" t="s">
+        <v>87</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>66591</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>43</v>
+      </c>
+      <c r="F8" t="s">
+        <v>89</v>
+      </c>
+      <c r="G8" t="s">
+        <v>45</v>
+      </c>
+      <c r="H8" t="s">
+        <v>46</v>
+      </c>
+      <c r="I8" t="s">
+        <v>90</v>
+      </c>
+      <c r="J8" t="s">
+        <v>91</v>
+      </c>
+      <c r="K8" t="s">
+        <v>92</v>
+      </c>
+      <c r="L8" t="s">
+        <v>93</v>
+      </c>
+      <c r="M8" t="n">
+        <v>5</v>
+      </c>
+      <c r="N8" t="s">
+        <v>94</v>
+      </c>
+      <c r="O8" t="s">
+        <v>65</v>
+      </c>
+      <c r="P8" t="s"/>
+      <c r="Q8" t="n">
+        <v>5</v>
+      </c>
+      <c r="R8" t="s"/>
+      <c r="S8" t="n">
+        <v>5</v>
+      </c>
+      <c r="T8" t="s"/>
+      <c r="U8" t="n">
+        <v>5</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s">
+        <v>86</v>
+      </c>
+      <c r="X8" t="s">
+        <v>87</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>66591</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>43</v>
+      </c>
+      <c r="F9" t="s">
+        <v>96</v>
+      </c>
+      <c r="G9" t="s">
+        <v>45</v>
+      </c>
+      <c r="H9" t="s">
+        <v>46</v>
+      </c>
+      <c r="I9" t="s">
+        <v>97</v>
+      </c>
+      <c r="J9" t="s">
+        <v>98</v>
+      </c>
+      <c r="K9" t="s">
+        <v>99</v>
+      </c>
+      <c r="L9" t="s">
+        <v>100</v>
+      </c>
+      <c r="M9" t="n">
+        <v>4</v>
+      </c>
+      <c r="N9" t="s">
+        <v>101</v>
+      </c>
+      <c r="O9" t="s">
+        <v>55</v>
+      </c>
+      <c r="P9" t="s"/>
+      <c r="Q9" t="n">
+        <v>3</v>
+      </c>
+      <c r="R9" t="s"/>
+      <c r="S9" t="s"/>
+      <c r="T9" t="s"/>
+      <c r="U9" t="n">
+        <v>4</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s">
+        <v>102</v>
+      </c>
+      <c r="X9" t="s">
+        <v>103</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>66591</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>43</v>
+      </c>
+      <c r="F10" t="s">
+        <v>105</v>
+      </c>
+      <c r="G10" t="s">
+        <v>45</v>
+      </c>
+      <c r="H10" t="s">
+        <v>46</v>
+      </c>
+      <c r="I10" t="s">
+        <v>106</v>
+      </c>
+      <c r="J10" t="s">
+        <v>107</v>
+      </c>
+      <c r="K10" t="s">
+        <v>108</v>
+      </c>
+      <c r="L10" t="s">
+        <v>109</v>
+      </c>
+      <c r="M10" t="n">
+        <v>2</v>
+      </c>
+      <c r="N10" t="s">
+        <v>101</v>
+      </c>
+      <c r="O10" t="s">
+        <v>110</v>
+      </c>
+      <c r="P10" t="s"/>
+      <c r="Q10" t="s"/>
+      <c r="R10" t="s"/>
+      <c r="S10" t="s"/>
+      <c r="T10" t="s"/>
+      <c r="U10" t="s"/>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s">
+        <v>111</v>
+      </c>
+      <c r="X10" t="s">
+        <v>112</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>66591</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>43</v>
+      </c>
+      <c r="F11" t="s">
+        <v>114</v>
+      </c>
+      <c r="G11" t="s">
+        <v>45</v>
+      </c>
+      <c r="H11" t="s">
+        <v>46</v>
+      </c>
+      <c r="I11" t="s">
+        <v>115</v>
+      </c>
+      <c r="J11" t="s">
+        <v>116</v>
+      </c>
+      <c r="K11" t="s">
+        <v>117</v>
+      </c>
+      <c r="L11" t="s">
+        <v>118</v>
+      </c>
+      <c r="M11" t="n">
+        <v>5</v>
+      </c>
+      <c r="N11" t="s">
+        <v>119</v>
+      </c>
+      <c r="O11" t="s">
+        <v>65</v>
+      </c>
+      <c r="P11" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q11" t="s"/>
+      <c r="R11" t="n">
+        <v>5</v>
+      </c>
+      <c r="S11" t="s"/>
+      <c r="T11" t="s"/>
+      <c r="U11" t="n">
+        <v>5</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s">
+        <v>120</v>
+      </c>
+      <c r="X11" t="s">
+        <v>121</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>122</v>
       </c>
     </row>
   </sheetData>
